--- a/English.xlsx
+++ b/English.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1136">
   <si>
     <t>5-01</t>
   </si>
@@ -3040,6 +3040,390 @@
   </si>
   <si>
     <t>I often depends on you.</t>
+  </si>
+  <si>
+    <t>live abroad</t>
+  </si>
+  <si>
+    <t>make any mistakes at all</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>train my memory</t>
+  </si>
+  <si>
+    <t>a cup of coffee</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>share your point of view</t>
+  </si>
+  <si>
+    <t>another place</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>all the truth</t>
+  </si>
+  <si>
+    <t>How long</t>
+  </si>
+  <si>
+    <t>unimportant</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>improve my result</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>much more</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>use the internet</t>
+  </si>
+  <si>
+    <t>depend on you</t>
+  </si>
+  <si>
+    <t>spend time together</t>
+  </si>
+  <si>
+    <t>solve this problem</t>
+  </si>
+  <si>
+    <t>leave home</t>
+  </si>
+  <si>
+    <t>get to work</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>do business</t>
+  </si>
+  <si>
+    <t>become a businessman</t>
+  </si>
+  <si>
+    <t>come to work</t>
+  </si>
+  <si>
+    <t>With great pleasure</t>
+  </si>
+  <si>
+    <t>inspire</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>find a good job</t>
+  </si>
+  <si>
+    <t>get home</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>study harder</t>
+  </si>
+  <si>
+    <t>look for a job</t>
+  </si>
+  <si>
+    <t>go abroad</t>
+  </si>
+  <si>
+    <t>prefer</t>
+  </si>
+  <si>
+    <t>go to the gym</t>
+  </si>
+  <si>
+    <t>go to the cinema</t>
+  </si>
+  <si>
+    <t>speak English correctly</t>
+  </si>
+  <si>
+    <t>get up late/early</t>
+  </si>
+  <si>
+    <t>criticize</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>get to school</t>
+  </si>
+  <si>
+    <t>This test seems very easy.</t>
+  </si>
+  <si>
+    <t>I need your adice/</t>
+  </si>
+  <si>
+    <t>It depends on them.</t>
+  </si>
+  <si>
+    <t>what English books does he have?</t>
+  </si>
+  <si>
+    <t>She explains all these things very well.</t>
+  </si>
+  <si>
+    <t>These lessons really help you.</t>
+  </si>
+  <si>
+    <t>She does those exercises regularly.</t>
+  </si>
+  <si>
+    <t>How often does she go to the cinema.</t>
+  </si>
+  <si>
+    <t>Who love her?</t>
+  </si>
+  <si>
+    <t>What helps her?</t>
+  </si>
+  <si>
+    <t>She lives in this place.</t>
+  </si>
+  <si>
+    <t>What kind of exemples does his teacher give?</t>
+  </si>
+  <si>
+    <t>does this person seem very good?</t>
+  </si>
+  <si>
+    <t>they go to work.</t>
+  </si>
+  <si>
+    <t>My sister lives there but I live here.</t>
+  </si>
+  <si>
+    <t>I need to speak English witout any mistakes at all.</t>
+  </si>
+  <si>
+    <t>It depends on us.</t>
+  </si>
+  <si>
+    <t>does he hate this thing?</t>
+  </si>
+  <si>
+    <t>do you often listen to music?</t>
+  </si>
+  <si>
+    <t>I do it with great pleasure.</t>
+  </si>
+  <si>
+    <t>It attracts me.</t>
+  </si>
+  <si>
+    <t>This lessons seems interesting.</t>
+  </si>
+  <si>
+    <t>Do we have enough knowlelge?</t>
+  </si>
+  <si>
+    <t>Does she remember all these rules?</t>
+  </si>
+  <si>
+    <t>do they do business?</t>
+  </si>
+  <si>
+    <t>I practice English every day.</t>
+  </si>
+  <si>
+    <t>does her boyfriend want to go abroad?</t>
+  </si>
+  <si>
+    <t>He has a cat.</t>
+  </si>
+  <si>
+    <t>These things attract them</t>
+  </si>
+  <si>
+    <t>do these things seem unimportant?</t>
+  </si>
+  <si>
+    <t>I live in Belarus.</t>
+  </si>
+  <si>
+    <t>He teachers English.</t>
+  </si>
+  <si>
+    <t>I doesn't help me.</t>
+  </si>
+  <si>
+    <t>it seems intresting.</t>
+  </si>
+  <si>
+    <t>This thing seems unimportant.</t>
+  </si>
+  <si>
+    <t>I want to train my memory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't want to speak/talk about it. </t>
+  </si>
+  <si>
+    <t>She doesn't want to think about it.</t>
+  </si>
+  <si>
+    <t>My friend need your help.</t>
+  </si>
+  <si>
+    <t>Why does it attract you/</t>
+  </si>
+  <si>
+    <t>How many dollars does he have with him?</t>
+  </si>
+  <si>
+    <t>do I have enough money?</t>
+  </si>
+  <si>
+    <t>She doesn't remember it.</t>
+  </si>
+  <si>
+    <t>What does he want to add/</t>
+  </si>
+  <si>
+    <t>wHY do your friends disagree with you?</t>
+  </si>
+  <si>
+    <t>does your mother tell him all the truth?</t>
+  </si>
+  <si>
+    <t>It inspires me?</t>
+  </si>
+  <si>
+    <t>What inspires you?</t>
+  </si>
+  <si>
+    <t>Does she often to the radio?</t>
+  </si>
+  <si>
+    <t>I find all these lessons really useful.</t>
+  </si>
+  <si>
+    <t>do your parents understand it?</t>
+  </si>
+  <si>
+    <t>Isee He really likes it.</t>
+  </si>
+  <si>
+    <t>It attracts him.</t>
+  </si>
+  <si>
+    <t>They often criticize him.</t>
+  </si>
+  <si>
+    <t>How do you usually get to that place?</t>
+  </si>
+  <si>
+    <t>This thing attracts me.</t>
+  </si>
+  <si>
+    <t>He makes so many mistakes.</t>
+  </si>
+  <si>
+    <t>I support this decision.</t>
+  </si>
+  <si>
+    <t>Who does it motivate.</t>
+  </si>
+  <si>
+    <t>It seems useless.</t>
+  </si>
+  <si>
+    <t>I feel  it.</t>
+  </si>
+  <si>
+    <t>it happens.</t>
+  </si>
+  <si>
+    <t>Those lessons don't help me at all.</t>
+  </si>
+  <si>
+    <t>I find them very useful.</t>
+  </si>
+  <si>
+    <t>Why does it seem strange.</t>
+  </si>
+  <si>
+    <t>This project seems very interesting.</t>
+  </si>
+  <si>
+    <t>She'k like to become a teacher.</t>
+  </si>
+  <si>
+    <t>What does he try to do?</t>
+  </si>
+  <si>
+    <t>This company has money.</t>
+  </si>
+  <si>
+    <t>I really want to improve my grammar.</t>
+  </si>
+  <si>
+    <t>They show brilliant results.</t>
+  </si>
+  <si>
+    <t>He always promises it.</t>
   </si>
 </sst>
 </file>
@@ -3387,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AY74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AO24" sqref="AO24"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3435,9 +3819,19 @@
     <col min="39" max="39" width="40.140625" customWidth="1"/>
     <col min="40" max="40" width="27.5703125" customWidth="1"/>
     <col min="41" max="41" width="31.7109375" customWidth="1"/>
+    <col min="42" max="42" width="25.85546875" customWidth="1"/>
+    <col min="43" max="43" width="29.28515625" customWidth="1"/>
+    <col min="44" max="44" width="30.28515625" customWidth="1"/>
+    <col min="45" max="45" width="32.5703125" customWidth="1"/>
+    <col min="46" max="46" width="31.5703125" customWidth="1"/>
+    <col min="47" max="47" width="33.7109375" customWidth="1"/>
+    <col min="48" max="48" width="29.140625" customWidth="1"/>
+    <col min="49" max="49" width="29.5703125" customWidth="1"/>
+    <col min="50" max="50" width="22.140625" customWidth="1"/>
+    <col min="51" max="51" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3555,8 +3949,38 @@
       <c r="AO1" s="4">
         <v>24</v>
       </c>
+      <c r="AP1" s="4">
+        <v>25</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>24.3</v>
+      </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3674,8 +4098,35 @@
       <c r="AO2" t="s">
         <v>988</v>
       </c>
+      <c r="AP2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>858</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>885</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3793,8 +4244,35 @@
       <c r="AO3" t="s">
         <v>989</v>
       </c>
+      <c r="AP3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>875</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3912,8 +4390,35 @@
       <c r="AO4" t="s">
         <v>990</v>
       </c>
+      <c r="AP4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>815</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>582</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4031,8 +4536,35 @@
       <c r="AO5" t="s">
         <v>105</v>
       </c>
+      <c r="AP5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>561</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>882</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>935</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>870</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4150,8 +4682,35 @@
       <c r="AO6" t="s">
         <v>991</v>
       </c>
+      <c r="AP6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>791</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>1135</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4269,8 +4828,35 @@
       <c r="AO7" t="s">
         <v>992</v>
       </c>
+      <c r="AP7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>555</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>901</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4388,8 +4974,35 @@
       <c r="AO8" t="s">
         <v>993</v>
       </c>
+      <c r="AP8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>668</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>596</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>359</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4507,8 +5120,32 @@
       <c r="AO9" t="s">
         <v>937</v>
       </c>
+      <c r="AP9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>845</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>829</v>
+      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4626,8 +5263,32 @@
       <c r="AO10" t="s">
         <v>994</v>
       </c>
+      <c r="AP10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>780</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>750</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>745</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4745,8 +5406,32 @@
       <c r="AO11" t="s">
         <v>995</v>
       </c>
+      <c r="AP11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>778</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>769</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4864,8 +5549,32 @@
       <c r="AO12" t="s">
         <v>996</v>
       </c>
+      <c r="AP12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>816</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>1130</v>
+      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4983,8 +5692,32 @@
       <c r="AO13" t="s">
         <v>997</v>
       </c>
+      <c r="AP13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>880</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>643</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>752</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>762</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1131</v>
+      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5102,8 +5835,32 @@
       <c r="AO14" t="s">
         <v>998</v>
       </c>
+      <c r="AP14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>856</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>761</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5221,8 +5978,32 @@
       <c r="AO15" t="s">
         <v>999</v>
       </c>
+      <c r="AP15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>743</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>764</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5340,8 +6121,32 @@
       <c r="AO16" t="s">
         <v>1000</v>
       </c>
+      <c r="AP16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>825</v>
+      </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5459,8 +6264,32 @@
       <c r="AO17" t="s">
         <v>1001</v>
       </c>
+      <c r="AP17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>802</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>915</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>581</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1132</v>
+      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5578,8 +6407,32 @@
       <c r="AO18" t="s">
         <v>1002</v>
       </c>
+      <c r="AP18" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>579</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>365</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>597</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>551</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5694,8 +6547,32 @@
       <c r="AO19" t="s">
         <v>1003</v>
       </c>
+      <c r="AP19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>250</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>589</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5807,8 +6684,32 @@
       <c r="AO20" t="s">
         <v>1004</v>
       </c>
+      <c r="AP20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>445</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>832</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>836</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5920,8 +6821,32 @@
       <c r="AO21" t="s">
         <v>1005</v>
       </c>
+      <c r="AP21" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>486</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6033,8 +6958,32 @@
       <c r="AO22" t="s">
         <v>1006</v>
       </c>
+      <c r="AP22" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>787</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>271</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>242</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>657</v>
+      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6143,8 +7092,32 @@
       <c r="AO23" t="s">
         <v>1007</v>
       </c>
+      <c r="AP23" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>358</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>918</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6247,8 +7220,32 @@
       <c r="AN24" t="s">
         <v>860</v>
       </c>
+      <c r="AP24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>631</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>865</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>824</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6351,8 +7348,32 @@
       <c r="AN25" t="s">
         <v>987</v>
       </c>
+      <c r="AP25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>900</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>821</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>800</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>811</v>
+      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6449,8 +7470,32 @@
       <c r="AM26" t="s">
         <v>18</v>
       </c>
+      <c r="AP26" t="s">
+        <v>420</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>842</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>808</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>652</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>834</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>908</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6547,8 +7592,32 @@
       <c r="AM27" t="s">
         <v>276</v>
       </c>
+      <c r="AP27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>552</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>909</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>759</v>
+      </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -6645,8 +7714,32 @@
       <c r="AM28" t="s">
         <v>973</v>
       </c>
+      <c r="AP28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>912</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>895</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>804</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -6740,8 +7833,32 @@
       <c r="AL29" t="s">
         <v>737</v>
       </c>
+      <c r="AP29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>850</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -6835,8 +7952,32 @@
       <c r="AL30" t="s">
         <v>893</v>
       </c>
+      <c r="AP30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>884</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -6927,8 +8068,32 @@
       <c r="AL31" t="s">
         <v>896</v>
       </c>
+      <c r="AP31" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>740</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>758</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>635</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>670</v>
+      </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7010,8 +8175,32 @@
       <c r="AL32" t="s">
         <v>906</v>
       </c>
+      <c r="AP32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>634</v>
+      </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7087,8 +8276,32 @@
       <c r="AL33" t="s">
         <v>774</v>
       </c>
+      <c r="AP33" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>771</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>588</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>892</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>675</v>
+      </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -7164,8 +8377,32 @@
       <c r="AL34" t="s">
         <v>888</v>
       </c>
+      <c r="AP34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>550</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>827</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>630</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>562</v>
+      </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -7241,8 +8478,32 @@
       <c r="AL35" t="s">
         <v>952</v>
       </c>
+      <c r="AP35" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>741</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -7315,8 +8576,32 @@
       <c r="AL36" t="s">
         <v>746</v>
       </c>
+      <c r="AP36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>755</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>751</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>924</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>662</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -7377,8 +8662,32 @@
       <c r="AL37" t="s">
         <v>769</v>
       </c>
+      <c r="AP37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>838</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>346</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>642</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>766</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>828</v>
+      </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -7439,8 +8748,32 @@
       <c r="AL38" t="s">
         <v>953</v>
       </c>
+      <c r="AP38" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>737</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1133</v>
+      </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:49">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -7489,8 +8822,32 @@
       <c r="AL39" s="2" t="s">
         <v>872</v>
       </c>
+      <c r="AP39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>936</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>450</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>637</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>523</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:49">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -7539,8 +8896,32 @@
       <c r="AL40" t="s">
         <v>841</v>
       </c>
+      <c r="AP40" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>863</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:49">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -7586,8 +8967,32 @@
       <c r="AK41" t="s">
         <v>946</v>
       </c>
+      <c r="AP41" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>965</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>655</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>971</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>738</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:49">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -7624,8 +9029,32 @@
       <c r="AE42" t="s">
         <v>847</v>
       </c>
+      <c r="AP42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>615</v>
+      </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:49">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -7659,8 +9088,32 @@
       <c r="AE43" t="s">
         <v>848</v>
       </c>
+      <c r="AP43" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>786</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>753</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>282</v>
+      </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:49">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7694,8 +9147,32 @@
       <c r="AE44" t="s">
         <v>849</v>
       </c>
+      <c r="AP44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>739</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>772</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:49">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7729,8 +9206,32 @@
       <c r="AE45" t="s">
         <v>850</v>
       </c>
+      <c r="AP45" t="s">
+        <v>428</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>587</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>672</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:49">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7761,8 +9262,32 @@
       <c r="AE46" t="s">
         <v>851</v>
       </c>
+      <c r="AP46" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>826</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>638</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>592</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>1134</v>
+      </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7793,8 +9318,32 @@
       <c r="AE47" t="s">
         <v>852</v>
       </c>
+      <c r="AP47" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>872</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>664</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>598</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7822,8 +9371,32 @@
       <c r="AE48" t="s">
         <v>853</v>
       </c>
+      <c r="AP48" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>869</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>564</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>863</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -7848,8 +9421,32 @@
       <c r="S49" t="s">
         <v>543</v>
       </c>
+      <c r="AP49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>665</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>494</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>877</v>
+      </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -7874,8 +9471,32 @@
       <c r="S50" t="s">
         <v>262</v>
       </c>
+      <c r="AP50" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>284</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>593</v>
+      </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -7900,8 +9521,29 @@
       <c r="S51" t="s">
         <v>118</v>
       </c>
+      <c r="AP51" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>871</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>773</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -7920,8 +9562,20 @@
       <c r="S52" t="s">
         <v>323</v>
       </c>
+      <c r="AP52" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>618</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>883</v>
+      </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -7937,8 +9591,11 @@
       <c r="S53" t="s">
         <v>372</v>
       </c>
+      <c r="AP53" t="s">
+        <v>1052</v>
+      </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:49">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -7948,8 +9605,11 @@
       <c r="C54" t="s">
         <v>176</v>
       </c>
+      <c r="AP54" t="s">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:49">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -7959,8 +9619,11 @@
       <c r="C55" t="s">
         <v>177</v>
       </c>
+      <c r="AP55" t="s">
+        <v>1054</v>
+      </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:49">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -7970,8 +9633,11 @@
       <c r="C56" t="s">
         <v>178</v>
       </c>
+      <c r="AP56" t="s">
+        <v>1055</v>
+      </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:49">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -7981,8 +9647,11 @@
       <c r="C57" t="s">
         <v>179</v>
       </c>
+      <c r="AP57" t="s">
+        <v>1056</v>
+      </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:49">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -7992,8 +9661,11 @@
       <c r="C58" t="s">
         <v>180</v>
       </c>
+      <c r="AP58" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:49">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -8003,8 +9675,11 @@
       <c r="C59" t="s">
         <v>181</v>
       </c>
+      <c r="AP59" t="s">
+        <v>433</v>
+      </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:49">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -8014,8 +9689,11 @@
       <c r="C60" t="s">
         <v>182</v>
       </c>
+      <c r="AP60" t="s">
+        <v>1057</v>
+      </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:49">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -8025,21 +9703,50 @@
       <c r="C61" t="s">
         <v>183</v>
       </c>
+      <c r="AP61" t="s">
+        <v>1058</v>
+      </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:49">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>122</v>
       </c>
+      <c r="AP62" t="s">
+        <v>1059</v>
+      </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:49">
       <c r="B63" t="s">
         <v>123</v>
       </c>
+      <c r="AP63" t="s">
+        <v>1060</v>
+      </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="64" spans="1:49">
+      <c r="AP64" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42">
+      <c r="AP65" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42">
+      <c r="AP66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42">
+      <c r="AP67" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42">
       <c r="A74" t="s">
         <v>522</v>
       </c>

--- a/English.xlsx
+++ b/English.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1143">
   <si>
     <t>5-01</t>
   </si>
@@ -3424,6 +3424,27 @@
   </si>
   <si>
     <t>He always promises it.</t>
+  </si>
+  <si>
+    <t>He explains everything very well.</t>
+  </si>
+  <si>
+    <t>It doesn't interest me at all.</t>
+  </si>
+  <si>
+    <t>It depends on him.</t>
+  </si>
+  <si>
+    <t>He doesn't share your point of view.</t>
+  </si>
+  <si>
+    <t>25.1, 25.2, 25.3, 25.4</t>
+  </si>
+  <si>
+    <t>He often complains about it.</t>
+  </si>
+  <si>
+    <t>I disagree with you. I don't agree with you.</t>
   </si>
 </sst>
 </file>
@@ -3469,7 +3490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3477,6 +3498,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3771,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY74"/>
+  <dimension ref="A1:AZ74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AX9" sqref="AX9"/>
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3828,10 +3852,11 @@
     <col min="48" max="48" width="29.140625" customWidth="1"/>
     <col min="49" max="49" width="29.5703125" customWidth="1"/>
     <col min="50" max="50" width="22.140625" customWidth="1"/>
-    <col min="51" max="51" width="11.140625" customWidth="1"/>
+    <col min="51" max="51" width="30.7109375" customWidth="1"/>
+    <col min="52" max="52" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3979,8 +4004,11 @@
       <c r="AY1" s="4">
         <v>24.3</v>
       </c>
+      <c r="AZ1" s="5" t="s">
+        <v>1140</v>
+      </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:52">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4125,8 +4153,14 @@
       <c r="AX2" t="s">
         <v>117</v>
       </c>
+      <c r="AY2" t="s">
+        <v>949</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1137</v>
+      </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:52">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4271,8 +4305,14 @@
       <c r="AX3" t="s">
         <v>356</v>
       </c>
+      <c r="AY3" t="s">
+        <v>841</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>814</v>
+      </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:52">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4457,14 @@
       <c r="AX4" t="s">
         <v>582</v>
       </c>
+      <c r="AY4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1138</v>
+      </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:52">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4563,8 +4609,11 @@
       <c r="AX5" t="s">
         <v>870</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>1139</v>
+      </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:52">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4709,8 +4758,11 @@
       <c r="AX6" s="2" t="s">
         <v>1135</v>
       </c>
+      <c r="AZ6" t="s">
+        <v>859</v>
+      </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:52">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4855,8 +4907,11 @@
       <c r="AX7" t="s">
         <v>901</v>
       </c>
+      <c r="AZ7" t="s">
+        <v>1141</v>
+      </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:52">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5001,8 +5056,11 @@
       <c r="AX8" t="s">
         <v>388</v>
       </c>
+      <c r="AZ8" t="s">
+        <v>1142</v>
+      </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:52">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5144,8 +5202,11 @@
       <c r="AW9" t="s">
         <v>829</v>
       </c>
+      <c r="AZ9" t="s">
+        <v>597</v>
+      </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:52">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5287,8 +5348,11 @@
       <c r="AW10" t="s">
         <v>745</v>
       </c>
+      <c r="AZ10" t="s">
+        <v>955</v>
+      </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:52">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5431,7 +5495,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:52">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5574,7 +5638,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:52">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5717,7 +5781,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:52">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5860,7 +5924,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:52">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6003,7 +6067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:52">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/English.xlsx
+++ b/English.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19440" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="14070" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="1513">
   <si>
     <t>5-01</t>
   </si>
@@ -3445,6 +3445,1116 @@
   </si>
   <si>
     <t>I disagree with you. I don't agree with you.</t>
+  </si>
+  <si>
+    <t>it is interesting.</t>
+  </si>
+  <si>
+    <t>I'm at home.</t>
+  </si>
+  <si>
+    <t>We're at home.</t>
+  </si>
+  <si>
+    <t>You're at home.</t>
+  </si>
+  <si>
+    <t>They're at home.</t>
+  </si>
+  <si>
+    <t>He's at home.</t>
+  </si>
+  <si>
+    <t>She 's at home.</t>
+  </si>
+  <si>
+    <t>It's at home.</t>
+  </si>
+  <si>
+    <t>I'm happy.</t>
+  </si>
+  <si>
+    <t>we're at work.</t>
+  </si>
+  <si>
+    <t>He's at school.</t>
+  </si>
+  <si>
+    <t>She's here.</t>
+  </si>
+  <si>
+    <t>It's there.</t>
+  </si>
+  <si>
+    <t>I'm sure.</t>
+  </si>
+  <si>
+    <t>I'm certain.</t>
+  </si>
+  <si>
+    <t>We're in the park.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We're so happy.</t>
+  </si>
+  <si>
+    <t>We're friends.</t>
+  </si>
+  <si>
+    <t>you're right.</t>
+  </si>
+  <si>
+    <t>You're very kind.</t>
+  </si>
+  <si>
+    <t>You're a good person.</t>
+  </si>
+  <si>
+    <t>They're our friends.</t>
+  </si>
+  <si>
+    <t>They're rich.</t>
+  </si>
+  <si>
+    <t>They're poor.</t>
+  </si>
+  <si>
+    <t>They're lazy.</t>
+  </si>
+  <si>
+    <t>He's a doctor.</t>
+  </si>
+  <si>
+    <t>I'm an engineer.</t>
+  </si>
+  <si>
+    <t>He's her husband.</t>
+  </si>
+  <si>
+    <t>She's his wife.</t>
+  </si>
+  <si>
+    <t>it's important.</t>
+  </si>
+  <si>
+    <t>It's so difficult.</t>
+  </si>
+  <si>
+    <t>It's easy.</t>
+  </si>
+  <si>
+    <t>It's bad.</t>
+  </si>
+  <si>
+    <t>26/1</t>
+  </si>
+  <si>
+    <t>It's interesting.</t>
+  </si>
+  <si>
+    <t>He's my friend.</t>
+  </si>
+  <si>
+    <t>It's so bad.</t>
+  </si>
+  <si>
+    <t>It's very important.</t>
+  </si>
+  <si>
+    <t>I'm lazy.</t>
+  </si>
+  <si>
+    <t>He's my boyfriend.</t>
+  </si>
+  <si>
+    <t>It's good.</t>
+  </si>
+  <si>
+    <t>You're right.</t>
+  </si>
+  <si>
+    <t>It's an interesting offer.</t>
+  </si>
+  <si>
+    <t>I'm at school.</t>
+  </si>
+  <si>
+    <t>We're so happy.</t>
+  </si>
+  <si>
+    <t>She's sure.</t>
+  </si>
+  <si>
+    <t>He's a businessman.</t>
+  </si>
+  <si>
+    <t>I'm so happy.</t>
+  </si>
+  <si>
+    <t>He's a student.</t>
+  </si>
+  <si>
+    <t>They're at work.</t>
+  </si>
+  <si>
+    <t>It's a good idea.</t>
+  </si>
+  <si>
+    <t>He's very rich.</t>
+  </si>
+  <si>
+    <t>She's my girlfriend.</t>
+  </si>
+  <si>
+    <t>It's an interesting idea.</t>
+  </si>
+  <si>
+    <t>He's sure.</t>
+  </si>
+  <si>
+    <t>He's a manager.</t>
+  </si>
+  <si>
+    <t>They're my friends.</t>
+  </si>
+  <si>
+    <t>She's very poor.</t>
+  </si>
+  <si>
+    <t>You're a good teacher.</t>
+  </si>
+  <si>
+    <t>It's the best example.</t>
+  </si>
+  <si>
+    <t>It's so boring.</t>
+  </si>
+  <si>
+    <t>It's too expensive.</t>
+  </si>
+  <si>
+    <t>It's cheap.</t>
+  </si>
+  <si>
+    <t>It's cold.</t>
+  </si>
+  <si>
+    <t>It's warm.</t>
+  </si>
+  <si>
+    <t>It's hot.</t>
+  </si>
+  <si>
+    <t>It's rainy.</t>
+  </si>
+  <si>
+    <t>It's sunny.</t>
+  </si>
+  <si>
+    <t>It's dark.</t>
+  </si>
+  <si>
+    <t>It's a cold day.</t>
+  </si>
+  <si>
+    <t>It's a warm day.</t>
+  </si>
+  <si>
+    <t>It's a hot day.</t>
+  </si>
+  <si>
+    <t>It's too hot.</t>
+  </si>
+  <si>
+    <t>It's too cold.</t>
+  </si>
+  <si>
+    <t>It's obvious.</t>
+  </si>
+  <si>
+    <t>It's simple.</t>
+  </si>
+  <si>
+    <t>It's possible.</t>
+  </si>
+  <si>
+    <t>It's impossible.</t>
+  </si>
+  <si>
+    <t>It's on the right.</t>
+  </si>
+  <si>
+    <t>It's on the left.</t>
+  </si>
+  <si>
+    <t>I'm fine.</t>
+  </si>
+  <si>
+    <t>It's better.</t>
+  </si>
+  <si>
+    <t>It's worse.</t>
+  </si>
+  <si>
+    <t>He's a young man.</t>
+  </si>
+  <si>
+    <t>She's a very beautiful girl.</t>
+  </si>
+  <si>
+    <t>It's a simple test.</t>
+  </si>
+  <si>
+    <t>It's so cold.</t>
+  </si>
+  <si>
+    <t>It's a big mistake.</t>
+  </si>
+  <si>
+    <t>It's an easy lesson.</t>
+  </si>
+  <si>
+    <t>It's a very expensive thing.</t>
+  </si>
+  <si>
+    <t>It's a good result.</t>
+  </si>
+  <si>
+    <t>It's too difficult.</t>
+  </si>
+  <si>
+    <t>27/1-2</t>
+  </si>
+  <si>
+    <t>You're the best teacher in the world.</t>
+  </si>
+  <si>
+    <t>It's an informative lesson.</t>
+  </si>
+  <si>
+    <t>It's an important thing.</t>
+  </si>
+  <si>
+    <t>It's a very simple method.</t>
+  </si>
+  <si>
+    <t>It's an expensive thing.</t>
+  </si>
+  <si>
+    <t>You're a happy person.</t>
+  </si>
+  <si>
+    <t>I'm ready.</t>
+  </si>
+  <si>
+    <t>It's a very boring book.</t>
+  </si>
+  <si>
+    <t>It's a useful lesson.</t>
+  </si>
+  <si>
+    <t>It's a low level.</t>
+  </si>
+  <si>
+    <t>It's a very interesting offer.</t>
+  </si>
+  <si>
+    <t>He's a poor person.</t>
+  </si>
+  <si>
+    <t>You're a very happy person.</t>
+  </si>
+  <si>
+    <t>It's too boring.</t>
+  </si>
+  <si>
+    <t>It's the better.</t>
+  </si>
+  <si>
+    <t>It's a very informative lesson.</t>
+  </si>
+  <si>
+    <t>He's the best teacher in the world.</t>
+  </si>
+  <si>
+    <t>It's a very important detail.</t>
+  </si>
+  <si>
+    <t>It's a very good result.</t>
+  </si>
+  <si>
+    <t>It's a very interesting detail.</t>
+  </si>
+  <si>
+    <t>It's a very big success.</t>
+  </si>
+  <si>
+    <t>He's a lazy student.</t>
+  </si>
+  <si>
+    <t>It's the best play list.</t>
+  </si>
+  <si>
+    <t>It's a high level.</t>
+  </si>
+  <si>
+    <t>It's an important detail.</t>
+  </si>
+  <si>
+    <t>It's a useless lesson.</t>
+  </si>
+  <si>
+    <t>It's a very good decision.</t>
+  </si>
+  <si>
+    <t>He's a very rich person.</t>
+  </si>
+  <si>
+    <t>It's the best course.</t>
+  </si>
+  <si>
+    <t>It's a very important thing.</t>
+  </si>
+  <si>
+    <t>It's so interesting.</t>
+  </si>
+  <si>
+    <t>It's such an interesting story.</t>
+  </si>
+  <si>
+    <t>It's so important.</t>
+  </si>
+  <si>
+    <t>It's such an important meeting.</t>
+  </si>
+  <si>
+    <t>It's so popular.</t>
+  </si>
+  <si>
+    <t>It's such a popular song.</t>
+  </si>
+  <si>
+    <t>It's such a difficult exam.</t>
+  </si>
+  <si>
+    <t>It's so easy.</t>
+  </si>
+  <si>
+    <t>It's such an easy test.</t>
+  </si>
+  <si>
+    <t>he's a professional teacher.</t>
+  </si>
+  <si>
+    <t>He's such a professional teacher.</t>
+  </si>
+  <si>
+    <t>It's such an expensive car.</t>
+  </si>
+  <si>
+    <t>She's beautiful.</t>
+  </si>
+  <si>
+    <t>She's so beautiful.</t>
+  </si>
+  <si>
+    <t>She's such a beautiful girl.</t>
+  </si>
+  <si>
+    <t>It's such an easy exercise.</t>
+  </si>
+  <si>
+    <t>It's so useful.</t>
+  </si>
+  <si>
+    <t>It's such a useful video.</t>
+  </si>
+  <si>
+    <t>It's such a bad situation.</t>
+  </si>
+  <si>
+    <t>It's so cheap.</t>
+  </si>
+  <si>
+    <t>It's such a cheap thing.</t>
+  </si>
+  <si>
+    <t>He's so strange.</t>
+  </si>
+  <si>
+    <t>He's such a strange person.</t>
+  </si>
+  <si>
+    <t>He's so clever. (smart)</t>
+  </si>
+  <si>
+    <t>He's such a clever man.</t>
+  </si>
+  <si>
+    <t>He's so talented.</t>
+  </si>
+  <si>
+    <t>He's such a talented boy.</t>
+  </si>
+  <si>
+    <t>It's such an effective method.</t>
+  </si>
+  <si>
+    <t>She's such a kind woman.</t>
+  </si>
+  <si>
+    <t>She's such a wise woman.</t>
+  </si>
+  <si>
+    <t>Your help is very important.</t>
+  </si>
+  <si>
+    <t>This boy is very clever.</t>
+  </si>
+  <si>
+    <t>Our teacher is right.</t>
+  </si>
+  <si>
+    <t>These lessons are so effective.</t>
+  </si>
+  <si>
+    <t>The channel is really very good.</t>
+  </si>
+  <si>
+    <t>All these videos are very useful.</t>
+  </si>
+  <si>
+    <t>The women are over there.</t>
+  </si>
+  <si>
+    <t>This video is very informative.</t>
+  </si>
+  <si>
+    <t>Her daughter is in the park.</t>
+  </si>
+  <si>
+    <t>My friend is sure.</t>
+  </si>
+  <si>
+    <t>His mother is 35.</t>
+  </si>
+  <si>
+    <t>I'm 32.</t>
+  </si>
+  <si>
+    <t>My girlfriend is 21.</t>
+  </si>
+  <si>
+    <t>The car is very good.</t>
+  </si>
+  <si>
+    <t>These men are managers.</t>
+  </si>
+  <si>
+    <t>His parents are abroad now.</t>
+  </si>
+  <si>
+    <t>Her husband is at home.</t>
+  </si>
+  <si>
+    <t>The woman is poor.</t>
+  </si>
+  <si>
+    <t>The day is rainy.</t>
+  </si>
+  <si>
+    <t>These lessons are very useful.</t>
+  </si>
+  <si>
+    <t>The questions are so easy.</t>
+  </si>
+  <si>
+    <t>These lessons are really good.</t>
+  </si>
+  <si>
+    <t>I'm sure you're the best in the world.</t>
+  </si>
+  <si>
+    <t>The rule is very important.</t>
+  </si>
+  <si>
+    <t>The managers are very professional.</t>
+  </si>
+  <si>
+    <t>Love is a wonderful feeling.</t>
+  </si>
+  <si>
+    <t>Time is money.</t>
+  </si>
+  <si>
+    <t>These things are very important.</t>
+  </si>
+  <si>
+    <t>My friend is at home.</t>
+  </si>
+  <si>
+    <t>This project is a big success.</t>
+  </si>
+  <si>
+    <t>The boy is at school.</t>
+  </si>
+  <si>
+    <t>His wife is 37.</t>
+  </si>
+  <si>
+    <t>The students are ready.</t>
+  </si>
+  <si>
+    <t>His wife is very wise.</t>
+  </si>
+  <si>
+    <t>Their idea is very interesting.</t>
+  </si>
+  <si>
+    <t>His son is in the zoo.</t>
+  </si>
+  <si>
+    <t>My brother is ready.</t>
+  </si>
+  <si>
+    <t>Her boss is very busy at the moment.</t>
+  </si>
+  <si>
+    <t>These words are new for me.</t>
+  </si>
+  <si>
+    <t>This thing is very important.</t>
+  </si>
+  <si>
+    <t>This place is very beautiful.</t>
+  </si>
+  <si>
+    <t>This information is really useful.</t>
+  </si>
+  <si>
+    <t>The day is hot.</t>
+  </si>
+  <si>
+    <t>YOUr examples are very good.</t>
+  </si>
+  <si>
+    <t>The lesson is interesting.</t>
+  </si>
+  <si>
+    <t>My mother is at work.</t>
+  </si>
+  <si>
+    <t>My parents are so happy.</t>
+  </si>
+  <si>
+    <t>I'm not married. I'm single.</t>
+  </si>
+  <si>
+    <t>I'm not a manager. I'm a teacher.</t>
+  </si>
+  <si>
+    <t>I'm not at home.</t>
+  </si>
+  <si>
+    <t>I'm not a student. I work.</t>
+  </si>
+  <si>
+    <t>We aren't tired. We're full of energy.</t>
+  </si>
+  <si>
+    <t>We aren't stupid. We're clever.</t>
+  </si>
+  <si>
+    <t>We aren't angry. We are very kind.</t>
+  </si>
+  <si>
+    <t>We aren't sad. We are happy.</t>
+  </si>
+  <si>
+    <t>You're not right. You're wrong.</t>
+  </si>
+  <si>
+    <t>You aren't in this place.</t>
+  </si>
+  <si>
+    <t>You aren't in the first place.</t>
+  </si>
+  <si>
+    <t>You're in the second place.</t>
+  </si>
+  <si>
+    <t>They aren't together.</t>
+  </si>
+  <si>
+    <t>They aren't my colleagues.</t>
+  </si>
+  <si>
+    <t>They aren't successful.</t>
+  </si>
+  <si>
+    <t>They are unsuccessful.</t>
+  </si>
+  <si>
+    <t>They aren't businessmen.</t>
+  </si>
+  <si>
+    <t>He isn't old. He's very young.</t>
+  </si>
+  <si>
+    <t>He isn't poor. He's very rich.</t>
+  </si>
+  <si>
+    <t>He isn't a director. He's a manager.</t>
+  </si>
+  <si>
+    <t>He isn't in the city.</t>
+  </si>
+  <si>
+    <t>He's in another city.</t>
+  </si>
+  <si>
+    <t>She isn't here. She's there.</t>
+  </si>
+  <si>
+    <t>She isn't a singer. She's an actress.actor</t>
+  </si>
+  <si>
+    <t>She isn't free. She's very busy.</t>
+  </si>
+  <si>
+    <t>These lessons are free.</t>
+  </si>
+  <si>
+    <t>She isn't with him. She's with her.</t>
+  </si>
+  <si>
+    <t>It isn't warm. It isn't hot.</t>
+  </si>
+  <si>
+    <t>It isn't rainy.</t>
+  </si>
+  <si>
+    <t>It isn't the same.</t>
+  </si>
+  <si>
+    <t>It isn't so easy.</t>
+  </si>
+  <si>
+    <t>It's very difficult.</t>
+  </si>
+  <si>
+    <t>It isn't far. It's near.</t>
+  </si>
+  <si>
+    <t>It isn't a good method. It's a very bad method.</t>
+  </si>
+  <si>
+    <t>It's such a bad method.</t>
+  </si>
+  <si>
+    <t>I prefer these lessons.</t>
+  </si>
+  <si>
+    <t>We aren't tired.</t>
+  </si>
+  <si>
+    <t>We are full of energy.</t>
+  </si>
+  <si>
+    <t>I'n not a manager.</t>
+  </si>
+  <si>
+    <t>I'm full of ideas.</t>
+  </si>
+  <si>
+    <t>It isn't so bad.</t>
+  </si>
+  <si>
+    <t>It's a very bad method.</t>
+  </si>
+  <si>
+    <t>It's a very ineffective method.</t>
+  </si>
+  <si>
+    <t>This woman isn't so wise.</t>
+  </si>
+  <si>
+    <t>It isn't for this level.</t>
+  </si>
+  <si>
+    <t>It isn't a difficult rule.</t>
+  </si>
+  <si>
+    <t>I'm free.</t>
+  </si>
+  <si>
+    <t>They aren't my collegues.</t>
+  </si>
+  <si>
+    <t>It isn't a very bad situation.</t>
+  </si>
+  <si>
+    <t>He isn't so hard-working.</t>
+  </si>
+  <si>
+    <t>It isn't a big mistake.</t>
+  </si>
+  <si>
+    <t>It isn't his profession.</t>
+  </si>
+  <si>
+    <t>We aren't sad.</t>
+  </si>
+  <si>
+    <t>I'nm not married.</t>
+  </si>
+  <si>
+    <t>He isn't ready.</t>
+  </si>
+  <si>
+    <t>They aren't businessman.</t>
+  </si>
+  <si>
+    <t>They are managers.</t>
+  </si>
+  <si>
+    <t>It's so far.</t>
+  </si>
+  <si>
+    <t>It isn't the best course.</t>
+  </si>
+  <si>
+    <t>I like this course more.</t>
+  </si>
+  <si>
+    <t>It isn't a high level.</t>
+  </si>
+  <si>
+    <t>They aren't successful. They're unsuccessful.</t>
+  </si>
+  <si>
+    <t>He isn't busy.</t>
+  </si>
+  <si>
+    <t>It isn't a very good decision.</t>
+  </si>
+  <si>
+    <t>It isn't boring.</t>
+  </si>
+  <si>
+    <t>Am I lucky?</t>
+  </si>
+  <si>
+    <t>Are we in the wrong place?</t>
+  </si>
+  <si>
+    <t>Are we hard-working?</t>
+  </si>
+  <si>
+    <t>Is it her own house?</t>
+  </si>
+  <si>
+    <t>Is he really hard-working?</t>
+  </si>
+  <si>
+    <t>Is his video funny?</t>
+  </si>
+  <si>
+    <t>Is this knowledge enough?</t>
+  </si>
+  <si>
+    <t>Is his father a businessman?</t>
+  </si>
+  <si>
+    <t>Is his mother a doctor?</t>
+  </si>
+  <si>
+    <t>Are his parents abroad?</t>
+  </si>
+  <si>
+    <t>Is this business profitable?</t>
+  </si>
+  <si>
+    <t>Is your father at work?</t>
+  </si>
+  <si>
+    <t>Is your mother at school?</t>
+  </si>
+  <si>
+    <t>Is the boy at home?</t>
+  </si>
+  <si>
+    <t>Are the boys at school?</t>
+  </si>
+  <si>
+    <t>Is the lesson useful?</t>
+  </si>
+  <si>
+    <t>Is the university famous?</t>
+  </si>
+  <si>
+    <t>Is his decision right?</t>
+  </si>
+  <si>
+    <t>Is the article in English?</t>
+  </si>
+  <si>
+    <t>Is the article about politics?</t>
+  </si>
+  <si>
+    <t>Is knowledge power?</t>
+  </si>
+  <si>
+    <t>Is this money enough?</t>
+  </si>
+  <si>
+    <t>Is the news interesting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is it? </t>
+  </si>
+  <si>
+    <t>Where are you?</t>
+  </si>
+  <si>
+    <t>What is here?</t>
+  </si>
+  <si>
+    <t>What's there?</t>
+  </si>
+  <si>
+    <t>What is in this box?</t>
+  </si>
+  <si>
+    <t>What's in your bag?</t>
+  </si>
+  <si>
+    <t>What's in your pocket?</t>
+  </si>
+  <si>
+    <t>What's next?</t>
+  </si>
+  <si>
+    <t>Why are you here?</t>
+  </si>
+  <si>
+    <t>Why is he at work now?</t>
+  </si>
+  <si>
+    <t>Why are you so happy?</t>
+  </si>
+  <si>
+    <t>Why is he angree?</t>
+  </si>
+  <si>
+    <t>Why are you against in?</t>
+  </si>
+  <si>
+    <t>They're really tired.</t>
+  </si>
+  <si>
+    <t>He's on a business trip.</t>
+  </si>
+  <si>
+    <t>She's on holiday.</t>
+  </si>
+  <si>
+    <t>I'm not satisfied with this decision.</t>
+  </si>
+  <si>
+    <t>We aren't tired at all.</t>
+  </si>
+  <si>
+    <t>You aren't optimistic.</t>
+  </si>
+  <si>
+    <t>They aren't pessimistic.</t>
+  </si>
+  <si>
+    <t>He isn't in the bathroom.</t>
+  </si>
+  <si>
+    <t>She isn't in the kitchen.</t>
+  </si>
+  <si>
+    <t>The book isn't boring at all.</t>
+  </si>
+  <si>
+    <t>The books aren't useful.</t>
+  </si>
+  <si>
+    <t>Books are our friends.</t>
+  </si>
+  <si>
+    <t>They're against this decision.</t>
+  </si>
+  <si>
+    <t>They aren't against this decision.</t>
+  </si>
+  <si>
+    <t>It's the same.</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>satisfied with this decision</t>
+  </si>
+  <si>
+    <t>a pair of trousers</t>
+  </si>
+  <si>
+    <t>a profitable business</t>
+  </si>
+  <si>
+    <t>35+</t>
+  </si>
+  <si>
+    <t>I'm not satisfied with this result.</t>
+  </si>
+  <si>
+    <t>I control the situation.</t>
+  </si>
+  <si>
+    <t>We always finish it on time.</t>
+  </si>
+  <si>
+    <t>They often laugh at it/him/her.</t>
+  </si>
+  <si>
+    <t>You know all the truth.</t>
+  </si>
+  <si>
+    <t>He prefers this strategy.</t>
+  </si>
+  <si>
+    <t>She often visits her grandmother.</t>
+  </si>
+  <si>
+    <t>It motivates us.</t>
+  </si>
+  <si>
+    <t>I enjoy English/sport</t>
+  </si>
+  <si>
+    <t>I enjoy this channel.</t>
+  </si>
+  <si>
+    <t>I enjoy foreign languages.</t>
+  </si>
+  <si>
+    <t>I'm serious.</t>
+  </si>
+  <si>
+    <t>It isn't a joke.</t>
+  </si>
+  <si>
+    <t>We're near.</t>
+  </si>
+  <si>
+    <t>They're in the bank.</t>
+  </si>
+  <si>
+    <t>You're in the bank.</t>
+  </si>
+  <si>
+    <t>He's a musician.</t>
+  </si>
+  <si>
+    <t>She's an expert in this area.</t>
+  </si>
+  <si>
+    <t>It's a waste of time / money.</t>
+  </si>
+  <si>
+    <t>It's comfortable for me.</t>
+  </si>
+  <si>
+    <t>It's my dream.</t>
+  </si>
+  <si>
+    <t>It's the best choice.</t>
+  </si>
+  <si>
+    <t>It's your best choice.</t>
+  </si>
+  <si>
+    <t>It's my final decision.</t>
+  </si>
+  <si>
+    <t>It's necessary to do it.</t>
+  </si>
+  <si>
+    <t>It's an important factor.</t>
+  </si>
+  <si>
+    <t>It's natural.</t>
+  </si>
+  <si>
+    <t>It's on the floor.</t>
+  </si>
+  <si>
+    <t>It's your chance.</t>
+  </si>
+  <si>
+    <t>It's our last chance.</t>
+  </si>
+  <si>
+    <t>Our teacher often compares our results.</t>
+  </si>
+  <si>
+    <t>The answer is correct.</t>
+  </si>
+  <si>
+    <t>The match is so interesting.</t>
+  </si>
+  <si>
+    <t>The conference is very boring.</t>
+  </si>
+  <si>
+    <t>The sound is too loud.</t>
+  </si>
+  <si>
+    <t>His wife has a strange feeling.</t>
+  </si>
+  <si>
+    <t>This training is very intensive.</t>
+  </si>
+  <si>
+    <t>His behavior is very strange.</t>
+  </si>
+  <si>
+    <t>Her husband is in hospital.</t>
+  </si>
+  <si>
+    <t>My friend and I live there in summer.</t>
+  </si>
+  <si>
+    <t>I like this color</t>
+  </si>
+  <si>
+    <t>I like this subject.</t>
+  </si>
+  <si>
+    <t>I need to adapt to these conditions.</t>
+  </si>
+  <si>
+    <t>I need to improve my knowledge.</t>
+  </si>
+  <si>
+    <t>We need more control.</t>
+  </si>
+  <si>
+    <t>I need to finish it as soon as possible.</t>
+  </si>
+  <si>
+    <t>I need to prepare for this exam.</t>
+  </si>
+  <si>
+    <t>I need to save this document.</t>
+  </si>
+  <si>
+    <t>He wants to attack them.</t>
   </si>
 </sst>
 </file>
@@ -3490,7 +4600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3499,6 +4609,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3795,10 +4908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ74"/>
+  <dimension ref="A1:BM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+    <sheetView tabSelected="1" topLeftCell="BJ19" workbookViewId="0">
+      <selection activeCell="BM50" sqref="BM50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3854,9 +4967,22 @@
     <col min="50" max="50" width="22.140625" customWidth="1"/>
     <col min="51" max="51" width="30.7109375" customWidth="1"/>
     <col min="52" max="52" width="31.28515625" customWidth="1"/>
+    <col min="53" max="53" width="18.28515625" customWidth="1"/>
+    <col min="54" max="54" width="20" customWidth="1"/>
+    <col min="55" max="55" width="20.140625" customWidth="1"/>
+    <col min="56" max="56" width="21.5703125" customWidth="1"/>
+    <col min="57" max="57" width="26.42578125" customWidth="1"/>
+    <col min="58" max="58" width="28.140625" customWidth="1"/>
+    <col min="59" max="59" width="23.85546875" customWidth="1"/>
+    <col min="60" max="60" width="21.85546875" customWidth="1"/>
+    <col min="61" max="61" width="26.7109375" customWidth="1"/>
+    <col min="62" max="62" width="17.7109375" customWidth="1"/>
+    <col min="63" max="63" width="27.7109375" customWidth="1"/>
+    <col min="64" max="64" width="25.7109375" customWidth="1"/>
+    <col min="65" max="65" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4007,8 +5133,47 @@
       <c r="AZ1" s="5" t="s">
         <v>1140</v>
       </c>
+      <c r="BA1" s="4">
+        <v>26</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BC1" s="4">
+        <v>27</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="BE1">
+        <v>28</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="BG1">
+        <v>30.1</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>31</v>
+      </c>
+      <c r="BI1">
+        <v>32</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="BK1">
+        <v>35</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BM1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:65">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4159,8 +5324,47 @@
       <c r="AZ2" t="s">
         <v>1137</v>
       </c>
+      <c r="BA2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1465</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:65">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4311,8 +5515,44 @@
       <c r="AZ3" t="s">
         <v>814</v>
       </c>
+      <c r="BA3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1466</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:65">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4463,8 +5703,44 @@
       <c r="AZ4" t="s">
         <v>1138</v>
       </c>
+      <c r="BA4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:65">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4612,8 +5888,44 @@
       <c r="AZ5" t="s">
         <v>1139</v>
       </c>
+      <c r="BA5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1468</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:65">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4761,8 +6073,44 @@
       <c r="AZ6" t="s">
         <v>859</v>
       </c>
+      <c r="BA6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>1469</v>
+      </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:65">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4910,8 +6258,41 @@
       <c r="AZ7" t="s">
         <v>1141</v>
       </c>
+      <c r="BA7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>1470</v>
+      </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:65">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5059,8 +6440,41 @@
       <c r="AZ8" t="s">
         <v>1142</v>
       </c>
+      <c r="BA8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>1471</v>
+      </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:65">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5205,8 +6619,41 @@
       <c r="AZ9" t="s">
         <v>597</v>
       </c>
+      <c r="BA9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>1472</v>
+      </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:65">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5351,8 +6798,41 @@
       <c r="AZ10" t="s">
         <v>955</v>
       </c>
+      <c r="BA10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>1473</v>
+      </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:65">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5494,8 +6974,41 @@
       <c r="AW11" t="s">
         <v>83</v>
       </c>
+      <c r="BA11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>1474</v>
+      </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:65">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5637,8 +7150,41 @@
       <c r="AW12" t="s">
         <v>1130</v>
       </c>
+      <c r="BA12" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>1275</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>1475</v>
+      </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:65">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5780,8 +7326,41 @@
       <c r="AW13" t="s">
         <v>1131</v>
       </c>
+      <c r="BA13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>1476</v>
+      </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:65">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5923,8 +7502,41 @@
       <c r="AW14" t="s">
         <v>185</v>
       </c>
+      <c r="BA14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1239</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1277</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>1443</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:65">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6066,8 +7678,38 @@
       <c r="AW15" t="s">
         <v>92</v>
       </c>
+      <c r="BA15" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1278</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>1391</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:65">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6209,8 +7851,38 @@
       <c r="AW16" t="s">
         <v>825</v>
       </c>
+      <c r="BA16" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>1279</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>1427</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>1479</v>
+      </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:65">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6352,8 +8024,38 @@
       <c r="AW17" t="s">
         <v>1132</v>
       </c>
+      <c r="BA17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>1480</v>
+      </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:65">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6495,8 +8197,38 @@
       <c r="AW18" t="s">
         <v>107</v>
       </c>
+      <c r="BA18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>1429</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1481</v>
+      </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:65">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6635,8 +8367,38 @@
       <c r="AW19" t="s">
         <v>108</v>
       </c>
+      <c r="BA19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BD19" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>1482</v>
+      </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:65">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6772,8 +8534,35 @@
       <c r="AW20" t="s">
         <v>10</v>
       </c>
+      <c r="BA20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>1483</v>
+      </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:65">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6909,8 +8698,32 @@
       <c r="AW21" t="s">
         <v>361</v>
       </c>
+      <c r="BA21" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:65">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -7046,8 +8859,32 @@
       <c r="AW22" t="s">
         <v>657</v>
       </c>
+      <c r="BA22" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>1212</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1284</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>1485</v>
+      </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:65">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -7180,8 +9017,32 @@
       <c r="AW23" t="s">
         <v>492</v>
       </c>
+      <c r="BA23" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BB23" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>1209</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>1486</v>
+      </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:65">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7308,8 +9169,32 @@
       <c r="AW24" t="s">
         <v>189</v>
       </c>
+      <c r="BA24" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>1158</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>1244</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1286</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:65">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -7436,8 +9321,32 @@
       <c r="AW25" t="s">
         <v>811</v>
       </c>
+      <c r="BA25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>1488</v>
+      </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:65">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -7558,8 +9467,32 @@
       <c r="AW26" t="s">
         <v>908</v>
       </c>
+      <c r="BA26" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>1489</v>
+      </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:65">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -7680,8 +9613,32 @@
       <c r="AW27" t="s">
         <v>759</v>
       </c>
+      <c r="BA27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>1246</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>1490</v>
+      </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:65">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7802,8 +9759,32 @@
       <c r="AW28" t="s">
         <v>5</v>
       </c>
+      <c r="BA28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>1224</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>1491</v>
+      </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:65">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -7921,8 +9902,32 @@
       <c r="AW29" t="s">
         <v>197</v>
       </c>
+      <c r="BA29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BC29" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="BD29" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>1291</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>1370</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>1404</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:65">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -8040,8 +10045,32 @@
       <c r="AW30" t="s">
         <v>212</v>
       </c>
+      <c r="BA30" t="s">
+        <v>1171</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1191</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1292</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1371</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1493</v>
+      </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:65">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8156,8 +10185,32 @@
       <c r="AW31" t="s">
         <v>670</v>
       </c>
+      <c r="BA31" t="s">
+        <v>1172</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>1192</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1248</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1293</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>1405</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:65">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -8263,8 +10316,32 @@
       <c r="AW32" t="s">
         <v>634</v>
       </c>
+      <c r="BA32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1193</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1219</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1294</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:65">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -8364,8 +10441,32 @@
       <c r="AW33" t="s">
         <v>675</v>
       </c>
+      <c r="BA33" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1249</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1373</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:65">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -8465,8 +10566,32 @@
       <c r="AW34" t="s">
         <v>562</v>
       </c>
+      <c r="BA34" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1250</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1294</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1374</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:65">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -8566,8 +10691,29 @@
       <c r="AW35" t="s">
         <v>591</v>
       </c>
+      <c r="BB35" t="s">
+        <v>1196</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1251</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1273</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>1407</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1498</v>
+      </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:65">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -8664,8 +10810,26 @@
       <c r="AW36" t="s">
         <v>350</v>
       </c>
+      <c r="BB36" t="s">
+        <v>1197</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1252</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1296</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1376</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:65">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -8750,8 +10914,26 @@
       <c r="AW37" t="s">
         <v>828</v>
       </c>
+      <c r="BB37" t="s">
+        <v>1198</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1297</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1377</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:65">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -8836,8 +11018,26 @@
       <c r="AW38" t="s">
         <v>1133</v>
       </c>
+      <c r="BB38" t="s">
+        <v>1199</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1298</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:65">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -8910,8 +11110,23 @@
       <c r="AW39" t="s">
         <v>466</v>
       </c>
+      <c r="BB39" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1502</v>
+      </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:65">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -8984,8 +11199,23 @@
       <c r="AW40" t="s">
         <v>31</v>
       </c>
+      <c r="BB40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1300</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1503</v>
+      </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:65">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9055,8 +11285,23 @@
       <c r="AW41" t="s">
         <v>186</v>
       </c>
+      <c r="BB41" t="s">
+        <v>1160</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1256</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1301</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1504</v>
+      </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:65">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9117,8 +11362,20 @@
       <c r="AW42" t="s">
         <v>615</v>
       </c>
+      <c r="BB42" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>1214</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>1505</v>
+      </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:65">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9176,8 +11433,20 @@
       <c r="AW43" t="s">
         <v>282</v>
       </c>
+      <c r="BB43" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>1506</v>
+      </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:65">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9235,8 +11504,17 @@
       <c r="AW44" t="s">
         <v>656</v>
       </c>
+      <c r="BD44" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>1507</v>
+      </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:65">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9294,8 +11572,17 @@
       <c r="AW45" t="s">
         <v>382</v>
       </c>
+      <c r="BD45" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>1305</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>1508</v>
+      </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:65">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -9350,8 +11637,17 @@
       <c r="AW46" t="s">
         <v>1134</v>
       </c>
+      <c r="BD46" t="s">
+        <v>1260</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>1509</v>
+      </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:65">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -9406,8 +11702,17 @@
       <c r="AW47" t="s">
         <v>136</v>
       </c>
+      <c r="BD47" t="s">
+        <v>1261</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>1307</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:65">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -9459,8 +11764,17 @@
       <c r="AW48" t="s">
         <v>576</v>
       </c>
+      <c r="BD48" t="s">
+        <v>1262</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:65">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -9509,8 +11823,17 @@
       <c r="AW49" t="s">
         <v>877</v>
       </c>
+      <c r="BD49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>1309</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:65">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -9559,8 +11882,14 @@
       <c r="AW50" t="s">
         <v>593</v>
       </c>
+      <c r="BD50" t="s">
+        <v>1207</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>1310</v>
+      </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:65">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9606,8 +11935,14 @@
       <c r="AW51" t="s">
         <v>453</v>
       </c>
+      <c r="BD51" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>1311</v>
+      </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:65">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9638,8 +11973,14 @@
       <c r="AW52" t="s">
         <v>883</v>
       </c>
+      <c r="BD52" t="s">
+        <v>1264</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>1312</v>
+      </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:65">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9658,8 +11999,14 @@
       <c r="AP53" t="s">
         <v>1052</v>
       </c>
+      <c r="BD53" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>1313</v>
+      </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:65">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9672,8 +12019,11 @@
       <c r="AP54" t="s">
         <v>1053</v>
       </c>
+      <c r="BE54" t="s">
+        <v>1314</v>
+      </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:65">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -9686,8 +12036,11 @@
       <c r="AP55" t="s">
         <v>1054</v>
       </c>
+      <c r="BE55" t="s">
+        <v>1315</v>
+      </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:65">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -9700,8 +12053,11 @@
       <c r="AP56" t="s">
         <v>1055</v>
       </c>
+      <c r="BE56" t="s">
+        <v>1316</v>
+      </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:65">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -9714,8 +12070,11 @@
       <c r="AP57" t="s">
         <v>1056</v>
       </c>
+      <c r="BE57" t="s">
+        <v>1317</v>
+      </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:65">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -9728,8 +12087,11 @@
       <c r="AP58" t="s">
         <v>1011</v>
       </c>
+      <c r="BE58" t="s">
+        <v>1318</v>
+      </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:65">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -9742,8 +12104,11 @@
       <c r="AP59" t="s">
         <v>433</v>
       </c>
+      <c r="BE59" t="s">
+        <v>1319</v>
+      </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:65">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -9756,8 +12121,11 @@
       <c r="AP60" t="s">
         <v>1057</v>
       </c>
+      <c r="BE60" t="s">
+        <v>1320</v>
+      </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:65">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -9770,8 +12138,11 @@
       <c r="AP61" t="s">
         <v>1058</v>
       </c>
+      <c r="BE61" t="s">
+        <v>1321</v>
+      </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:65">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -9781,38 +12152,129 @@
       <c r="AP62" t="s">
         <v>1059</v>
       </c>
+      <c r="BE62" t="s">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:65">
       <c r="B63" t="s">
         <v>123</v>
       </c>
       <c r="AP63" t="s">
         <v>1060</v>
       </c>
+      <c r="BE63" t="s">
+        <v>1323</v>
+      </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:65">
       <c r="AP64" t="s">
         <v>1061</v>
       </c>
+      <c r="BE64" t="s">
+        <v>1324</v>
+      </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:57">
       <c r="AP65" t="s">
         <v>1062</v>
       </c>
+      <c r="BE65" t="s">
+        <v>1325</v>
+      </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:57">
       <c r="AP66" t="s">
         <v>422</v>
       </c>
+      <c r="BE66" t="s">
+        <v>1326</v>
+      </c>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:57">
       <c r="AP67" t="s">
         <v>1063</v>
       </c>
+      <c r="BE67" t="s">
+        <v>1327</v>
+      </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="68" spans="1:57">
+      <c r="BE68" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57">
+      <c r="BE69" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57">
+      <c r="BE70" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57">
+      <c r="BE71" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57">
+      <c r="BE72" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57">
+      <c r="BE73" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57">
       <c r="A74" t="s">
         <v>522</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57">
+      <c r="BE75" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57">
+      <c r="BE76" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57">
+      <c r="BE77" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57">
+      <c r="BE78" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57">
+      <c r="BE79" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57">
+      <c r="BE80" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="81" spans="57:57">
+      <c r="BE81" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="82" spans="57:57">
+      <c r="BE82" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
